--- a/results/comparaison/GM/diattenuation/mean_raw_data.xlsx
+++ b/results/comparaison/GM/diattenuation/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0610605966064548</v>
+        <v>0.06666771922163529</v>
       </c>
       <c r="C2">
-        <v>0.0386117594230106</v>
+        <v>0.0280941787388919</v>
       </c>
       <c r="D2">
-        <v>0.06365577641588339</v>
+        <v>0.0430144303617765</v>
       </c>
       <c r="E2">
-        <v>0.0703906418349991</v>
+        <v>0.0301457608804445</v>
       </c>
       <c r="F2">
-        <v>0.041837216880626</v>
+        <v>0.0345734702558402</v>
+      </c>
+      <c r="G2">
+        <v>0.0308534733650784</v>
+      </c>
+      <c r="H2">
+        <v>0.0292033200321137</v>
+      </c>
+      <c r="I2">
+        <v>0.0355109898248743</v>
+      </c>
+      <c r="J2">
+        <v>0.0335960199008417</v>
+      </c>
+      <c r="K2">
+        <v>0.0250572663697147</v>
+      </c>
+      <c r="L2">
+        <v>0.0364049718141574</v>
+      </c>
+      <c r="M2">
+        <v>0.0392058144964201</v>
+      </c>
+      <c r="N2">
+        <v>0.0389729676078137</v>
+      </c>
+      <c r="O2">
+        <v>0.039300131589677</v>
+      </c>
+      <c r="P2">
+        <v>0.0409412340840498</v>
+      </c>
+      <c r="Q2">
+        <v>0.0342468594276578</v>
+      </c>
+      <c r="R2">
+        <v>0.0419238911170486</v>
+      </c>
+      <c r="S2">
+        <v>0.0319028524634034</v>
+      </c>
+      <c r="T2">
+        <v>0.047476991561655</v>
+      </c>
+      <c r="U2">
+        <v>0.0292976269854303</v>
+      </c>
+      <c r="V2">
+        <v>0.07984121863353121</v>
+      </c>
+      <c r="W2">
+        <v>0.0383054023643901</v>
+      </c>
+      <c r="X2">
+        <v>0.0285768376871137</v>
+      </c>
+      <c r="Y2">
+        <v>0.0392034049206064</v>
+      </c>
+      <c r="Z2">
+        <v>0.0356656900974501</v>
+      </c>
+      <c r="AA2">
+        <v>0.0340580332183544</v>
+      </c>
+      <c r="AB2">
+        <v>0.0279666743014237</v>
+      </c>
+      <c r="AC2">
+        <v>0.0320039181872114</v>
+      </c>
+      <c r="AD2">
+        <v>0.0352482411363668</v>
+      </c>
+      <c r="AE2">
+        <v>0.0596414003466574</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.0339088406892618</v>
-      </c>
       <c r="C3">
-        <v>0.0241544786962923</v>
+        <v>0.0383265815276738</v>
       </c>
       <c r="D3">
-        <v>0.0304512486730158</v>
+        <v>0.0464372841519242</v>
       </c>
       <c r="E3">
-        <v>0.0311913100829417</v>
+        <v>0.0384684847193296</v>
       </c>
       <c r="F3">
-        <v>0.0431265240917626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.0314473191774219</v>
-      </c>
-      <c r="C4">
-        <v>0.0303164443261631</v>
-      </c>
-      <c r="D4">
-        <v>0.0254043707859909</v>
-      </c>
-      <c r="E4">
-        <v>0.0301194010173082</v>
-      </c>
-      <c r="F4">
-        <v>0.0407776767296773</v>
+        <v>0.0560037548286571</v>
+      </c>
+      <c r="G3">
+        <v>0.0239234832609585</v>
+      </c>
+      <c r="H3">
+        <v>0.039991360164638</v>
+      </c>
+      <c r="I3">
+        <v>0.0421941062562844</v>
+      </c>
+      <c r="J3">
+        <v>0.0307840003251832</v>
+      </c>
+      <c r="K3">
+        <v>0.0278768323537394</v>
+      </c>
+      <c r="L3">
+        <v>0.0257161833469329</v>
+      </c>
+      <c r="M3">
+        <v>0.0546428029168265</v>
+      </c>
+      <c r="N3">
+        <v>0.0322095018113238</v>
+      </c>
+      <c r="O3">
+        <v>0.0415078106349524</v>
+      </c>
+      <c r="P3">
+        <v>0.0375471397823492</v>
+      </c>
+      <c r="Q3">
+        <v>0.0274941001320775</v>
+      </c>
+      <c r="R3">
+        <v>0.0421690767876279</v>
+      </c>
+      <c r="S3">
+        <v>0.02971683948333</v>
+      </c>
+      <c r="T3">
+        <v>0.0437721065445185</v>
+      </c>
+      <c r="U3">
+        <v>0.0298325925574442</v>
+      </c>
+      <c r="V3">
+        <v>0.0566981622665745</v>
+      </c>
+      <c r="W3">
+        <v>0.0474660659973293</v>
+      </c>
+      <c r="X3">
+        <v>0.0387496279790303</v>
+      </c>
+      <c r="Y3">
+        <v>0.0441456121407743</v>
+      </c>
+      <c r="Z3">
+        <v>0.0355641356704955</v>
+      </c>
+      <c r="AA3">
+        <v>0.0477081717701906</v>
+      </c>
+      <c r="AB3">
+        <v>0.0391014334491989</v>
+      </c>
+      <c r="AC3">
+        <v>0.0426877562480627</v>
+      </c>
+      <c r="AD3">
+        <v>0.0388307375326349</v>
+      </c>
+      <c r="AE3">
+        <v>0.0540324578399127</v>
       </c>
     </row>
   </sheetData>
